--- a/GuitarStarBackOffice.ServerSide/Services/ExportService/Resources/Excel/TemplateCatalog.xlsx
+++ b/GuitarStarBackOffice.ServerSide/Services/ExportService/Resources/Excel/TemplateCatalog.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leox5\МПТ\4 курс\курсач\Project\BackOffice\GuitarStarBackOffice\GuitarStarBackOffice.ServerSide\Services\ExportService\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381DA94-950D-4149-B3F9-3D428584DF73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E86C03-0CBE-4A41-A01A-B2787D10F380}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FOlYySkwEzE3vdjd9Y0tCLkTvwH0XUIXjBvo0Voynj5BxWmi0n6GD9FApB4w8OJ3rLPR/90CDtvMl46EYpmFaA==" workbookSaltValue="3mlnUzI+0o6g+DwFQuT+Cg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588C661A-E107-406F-9E89-5108EEF6CF0E}"/>
+    <workbookView xWindow="-25200" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588C661A-E107-406F-9E89-5108EEF6CF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>&lt;&lt;sort asc&gt;&gt;</t>
-  </si>
-  <si>
     <t>Номер заказа</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Статус оплаты</t>
   </si>
   <si>
-    <t>Guitar Star orders</t>
-  </si>
-  <si>
     <t>{{item.OrderNumber}}</t>
   </si>
   <si>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Guitar Star Заказы</t>
+  </si>
+  <si>
+    <t>&lt;&lt;sort desc&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92208D1-FA3C-4815-BA45-C90CD32B600C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="46" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -591,47 +591,47 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GuitarStarBackOffice.ServerSide/Services/ExportService/Resources/Excel/TemplateCatalog.xlsx
+++ b/GuitarStarBackOffice.ServerSide/Services/ExportService/Resources/Excel/TemplateCatalog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leox5\МПТ\4 курс\курсач\Project\BackOffice\GuitarStarBackOffice\GuitarStarBackOffice.ServerSide\Services\ExportService\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E86C03-0CBE-4A41-A01A-B2787D10F380}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ECA306-D1C6-4558-B09D-D837B0CAEF88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FOlYySkwEzE3vdjd9Y0tCLkTvwH0XUIXjBvo0Voynj5BxWmi0n6GD9FApB4w8OJ3rLPR/90CDtvMl46EYpmFaA==" workbookSaltValue="3mlnUzI+0o6g+DwFQuT+Cg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588C661A-E107-406F-9E89-5108EEF6CF0E}"/>
+    <workbookView xWindow="-21480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588C661A-E107-406F-9E89-5108EEF6CF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Catalog">Лист1!$A$3:$F$4</definedName>
+    <definedName name="Catalog">Лист1!$A$3:$G$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -67,10 +67,22 @@
     <t>Сотрудник</t>
   </si>
   <si>
-    <t>Guitar Star Заказы</t>
-  </si>
-  <si>
-    <t>&lt;&lt;sort desc&gt;&gt;</t>
+    <t>&lt;&lt;sum&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>&lt;&lt;group&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Электронная почта клиента</t>
+  </si>
+  <si>
+    <t>{{item.CustomerEmail}}</t>
+  </si>
+  <si>
+    <t>Electro Star Заказы</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -244,10 +256,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -564,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92208D1-FA3C-4815-BA45-C90CD32B600C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,29 +586,31 @@
     <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.26953125" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="46" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -608,16 +621,19 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -628,14 +644,26 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
